--- a/stock_predictor_ai/data/company_sentiment_ready/SNA_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/SNA_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13201"/>
+  <dimension ref="A1:B13255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -106049,6 +106049,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13202">
+      <c r="A13202" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B13202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13203">
+      <c r="A13203" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B13203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13204">
+      <c r="A13204" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B13204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13205">
+      <c r="A13205" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B13205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13206">
+      <c r="A13206" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B13206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13207">
+      <c r="A13207" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B13207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13208">
+      <c r="A13208" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B13208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13209">
+      <c r="A13209" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B13209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13210">
+      <c r="A13210" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B13210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13211">
+      <c r="A13211" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B13211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13212">
+      <c r="A13212" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B13212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13213">
+      <c r="A13213" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B13213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13214">
+      <c r="A13214" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B13214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13215">
+      <c r="A13215" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B13215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13216">
+      <c r="A13216" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B13216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13217">
+      <c r="A13217" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B13217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13218">
+      <c r="A13218" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B13218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13219">
+      <c r="A13219" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B13219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13220">
+      <c r="A13220" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B13220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13221">
+      <c r="A13221" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B13221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13222">
+      <c r="A13222" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B13222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13223">
+      <c r="A13223" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B13223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13224">
+      <c r="A13224" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B13224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13225">
+      <c r="A13225" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B13225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13226">
+      <c r="A13226" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B13226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13227">
+      <c r="A13227" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B13227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13228">
+      <c r="A13228" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B13228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13229">
+      <c r="A13229" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B13229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13230">
+      <c r="A13230" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B13230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13231">
+      <c r="A13231" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B13231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13232">
+      <c r="A13232" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B13232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13233">
+      <c r="A13233" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B13233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13234">
+      <c r="A13234" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B13234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13235">
+      <c r="A13235" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B13235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13236">
+      <c r="A13236" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B13236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13237">
+      <c r="A13237" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B13237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13238">
+      <c r="A13238" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B13238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13239">
+      <c r="A13239" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B13239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13240">
+      <c r="A13240" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B13240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13241">
+      <c r="A13241" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B13241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13242">
+      <c r="A13242" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B13242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13243">
+      <c r="A13243" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B13243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13244">
+      <c r="A13244" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B13244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13245">
+      <c r="A13245" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B13245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13246">
+      <c r="A13246" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B13246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13247">
+      <c r="A13247" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B13247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13248">
+      <c r="A13248" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B13248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13249">
+      <c r="A13249" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B13249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13250">
+      <c r="A13250" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B13250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13251">
+      <c r="A13251" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B13251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13252">
+      <c r="A13252" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B13252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13253">
+      <c r="A13253" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B13253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13254">
+      <c r="A13254" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B13254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13255">
+      <c r="A13255" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B13255" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
